--- a/data/excel/20180926 Regional game IMS 2.3.xlsx
+++ b/data/excel/20180926 Regional game IMS 2.3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u511177\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raphael/Library/Mobile Documents/com~apple~CloudDocs/Studium/GustavoQGIS/PlanningTool/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" tabRatio="762" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31320" windowHeight="15160" tabRatio="762" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BASIS - Financial data" sheetId="21" r:id="rId1"/>
@@ -29,9 +29,12 @@
     <sheet name="Reserve Revenue (NOT USED)" sheetId="15" r:id="rId15"/>
     <sheet name="Housing plans (NO USE)" sheetId="18" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +47,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +83,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander:</t>
         </r>
@@ -121,14 +124,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 afstand tot station?</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +213,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander:</t>
         </r>
@@ -219,14 +222,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not more than max</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +289,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +374,7 @@
     <author>Lenferink</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +382,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander:</t>
         </r>
@@ -388,14 +391,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 afstand tot station?</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="1" shapeId="0">
+    <comment ref="L5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -451,7 +454,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -460,7 +463,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 walking due to no bus
@@ -468,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="1" shapeId="0">
+    <comment ref="L6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -476,7 +479,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -485,7 +488,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 To Purmerend
@@ -493,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="1" shapeId="0">
+    <comment ref="J9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -501,7 +504,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -510,7 +513,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 by bus
@@ -518,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="1" shapeId="0">
+    <comment ref="K9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -526,7 +529,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -535,14 +538,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Purmerend Overwhere 8700</t>
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="1" shapeId="0">
+    <comment ref="N9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -550,7 +553,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -559,14 +562,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Purmerend Overwhere</t>
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="1" shapeId="0">
+    <comment ref="K10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -574,7 +577,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -583,7 +586,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10000 m to Purmerend Overwhere
@@ -591,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="1" shapeId="0">
+    <comment ref="N10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -599,7 +602,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -608,7 +611,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 purmerend overwhere
@@ -616,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="1" shapeId="0">
+    <comment ref="L16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -650,7 +653,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -684,7 +687,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -732,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -757,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -782,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -790,7 +793,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sander:</t>
         </r>
@@ -799,14 +802,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Not more than max</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -830,7 +833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +868,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -873,7 +876,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -882,7 +885,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 cah-kaart.nl
@@ -891,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0">
+    <comment ref="I6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -916,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="1" shapeId="0">
+    <comment ref="I11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -941,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="1" shapeId="0">
+    <comment ref="I13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -966,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="1" shapeId="0">
+    <comment ref="I14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -982,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="1" shapeId="0">
+    <comment ref="I16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="1" shapeId="0">
+    <comment ref="I17" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="1" shapeId="0">
+    <comment ref="I19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="1" shapeId="0">
+    <comment ref="I21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0">
+    <comment ref="I22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -1125,7 +1128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 14M from zaanstad
@@ -1134,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="1" shapeId="0">
+    <comment ref="I24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1159,7 +1162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="1" shapeId="0">
+    <comment ref="I25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1184,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF25" authorId="0" shapeId="0">
+    <comment ref="AF25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1208,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="1" shapeId="0">
+    <comment ref="I26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1244,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lenferink:</t>
         </r>
@@ -1250,7 +1253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 incl aansluiting Achtersluispolder
@@ -1258,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="1" shapeId="0">
+    <comment ref="I29" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1283,7 +1286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="1" shapeId="0">
+    <comment ref="I31" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="1" shapeId="0">
+    <comment ref="I34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1334,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="1" shapeId="0">
+    <comment ref="I37" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1369,7 +1372,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1404,7 +1407,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1490,7 @@
     <author>Sander</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2902,13 +2905,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2964,19 +2967,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -3040,26 +3030,26 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3067,10 +3057,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3094,7 +3084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3165,11 +3155,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3"/>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="4" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3178,6 +3168,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3201,10 +3212,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3214,27 +3225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3553,7 +3543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
@@ -3562,13 +3552,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>266</v>
       </c>
@@ -3576,7 +3566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>193</v>
       </c>
@@ -3600,7 +3590,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -3631,7 +3621,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -3662,7 +3652,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="48" t="s">
         <v>256</v>
       </c>
@@ -3675,12 +3665,12 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>254</v>
       </c>
@@ -3706,7 +3696,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3742,7 +3732,7 @@
         <v>50449.774884086124</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3778,7 +3768,7 @@
         <v>41904.932794326924</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3814,7 +3804,7 @@
         <v>42279.741128928858</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3850,7 +3840,7 @@
         <v>42295.678989310873</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>255</v>
       </c>
@@ -3885,7 +3875,7 @@
         <v>59647.352941176461</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="48" t="s">
         <v>257</v>
       </c>
@@ -3893,12 +3883,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>273</v>
       </c>
@@ -3909,7 +3899,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -3924,7 +3914,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -3939,7 +3929,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>98.7</v>
       </c>
@@ -3950,12 +3940,12 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -3963,7 +3953,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -3979,7 +3969,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
@@ -3988,21 +3978,21 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -4019,7 +4009,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -4031,7 +4021,7 @@
         <v>-54673.812329213564</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4052,7 +4042,7 @@
         <v>-1116.4030183759933</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4068,12 +4058,12 @@
         <f t="shared" ref="D4:D8" si="0">B4-C4</f>
         <v>-656.5318759557772</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="68">
         <f>SUM('INPUT - Housing per plan '!N3:O3)+SUM('INPUT - Housing per plan '!N19:O21)-'BASIS - Housing demand'!I3</f>
         <v>-2056.5318759557772</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -4094,7 +4084,7 @@
         <v>-3349.2090551279803</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4110,23 +4100,23 @@
         <f t="shared" si="0"/>
         <v>4980.0822281832079</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="68">
         <f>SUM('INPUT - Housing per plan '!N11:O18)-'BASIS - Housing demand'!I6</f>
         <v>-8519.9177718167921</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="76">
+      <c r="E7" s="64">
         <f>SUM('INPUT - Housing per plan '!N3:O21)-'BASIS - Housing demand'!I7</f>
         <v>-70215.874050490107</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>286</v>
       </c>
@@ -4142,20 +4132,20 @@
         <f t="shared" si="0"/>
         <v>4770.9382787234572</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="68">
         <f>SUM('INPUT - Housing per plan '!N3:O21)-'BASIS - Housing demand'!I8</f>
         <v>-15042.061721276543</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>338</v>
       </c>
@@ -4169,7 +4159,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:E31"/>
@@ -4178,16 +4168,16 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
@@ -4204,7 +4194,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -4223,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -4243,14 +4233,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="60">
         <f>'INPUT - Housing per plan '!T3+SUM('INPUT - Housing per plan '!T19:T21)</f>
         <v>0</v>
       </c>
@@ -4263,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4283,14 +4273,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="60">
         <f>SUM('INPUT - Housing per plan '!T11:T18)</f>
         <v>0</v>
       </c>
@@ -4303,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -4322,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -4341,13 +4331,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -4356,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4365,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -4374,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -4383,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4392,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -4401,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -4410,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>339</v>
       </c>
@@ -4421,11 +4411,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="60">
         <f>'INPUT - Housing per plan '!T11+'INPUT - Housing per plan '!T12+SUM('INPUT - Housing per plan '!T15:T18)</f>
         <v>0</v>
       </c>
@@ -4438,11 +4428,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="72">
+      <c r="B26" s="60">
         <f>'INPUT - Housing per plan '!T13+'INPUT - Housing per plan '!T14</f>
         <v>0</v>
       </c>
@@ -4455,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>328</v>
       </c>
@@ -4472,11 +4462,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="60">
         <f>'INPUT - Housing per plan '!T3+SUM('INPUT - Housing per plan '!T19:T21)</f>
         <v>0</v>
       </c>
@@ -4489,11 +4479,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="60">
         <f>'INPUT - Housing per plan '!T9+'INPUT - Housing per plan '!T10</f>
         <v>0</v>
       </c>
@@ -4506,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>331</v>
       </c>
@@ -4522,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>332</v>
       </c>
@@ -4546,7 +4536,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
@@ -4555,21 +4545,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>313</v>
       </c>
@@ -4580,7 +4570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4612,37 +4602,37 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>345</v>
@@ -4657,138 +4647,138 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>326</v>
       </c>
-      <c r="B11" s="82" t="e">
+      <c r="B11" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p1",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p1"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D11" s="72" t="e">
+      <c r="D11" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p1",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p1"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="72" t="e">
+      <c r="F11" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p1"))*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>327</v>
       </c>
-      <c r="B12" s="82" t="e">
+      <c r="B12" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p2",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p2"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="72" t="e">
+      <c r="D12" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p2",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p2"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="72" t="e">
+      <c r="F12" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p2"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p2"))*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>328</v>
       </c>
-      <c r="B13" s="82" t="e">
+      <c r="B13" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p3",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p3"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="72" t="e">
+      <c r="D13" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p3",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p3"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="72" t="e">
+      <c r="F13" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p3"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p3"))*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="82" t="e">
+      <c r="B14" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D14" s="72" t="e">
+      <c r="D14" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="72" t="e">
+      <c r="F14" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="82" t="e">
+      <c r="B15" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p5",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p5"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="72" t="e">
+      <c r="D15" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p5",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p5"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="72" t="e">
+      <c r="F15" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p5"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p5"))*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>331</v>
       </c>
-      <c r="B16" s="82" t="e">
+      <c r="B16" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p6",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p6"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D16" s="72" t="e">
+      <c r="D16" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p6",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p6"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="72" t="e">
+      <c r="F16" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p6"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p6"))*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>332</v>
       </c>
-      <c r="B17" s="82" t="e">
+      <c r="B17" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p7",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p7"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D17" s="72" t="e">
+      <c r="D17" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p7",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p7"))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="72" t="e">
+      <c r="F17" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p7"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p7"))*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="82" t="e">
+      <c r="B18" s="70" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUM('INPUT - Housing per plan '!$L$3:$L$21))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="72" t="e">
+      <c r="D18" s="60" t="e">
         <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUM('INPUT - Housing per plan '!$L$3:$L$21))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="72" t="e">
+      <c r="F18" s="60" t="e">
         <f>(SUM('INPUT - Housing per plan '!$O$3:$O$21))/(SUM('INPUT - Housing per plan '!$L$3:$L$21))*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -4802,14 +4792,14 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4821,7 +4811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4829,7 +4819,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:N14"/>
@@ -4838,19 +4828,19 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -4891,7 +4881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -4940,7 +4930,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4970,7 +4960,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>47</v>
       </c>
@@ -4995,7 +4985,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -5017,7 +5007,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5044,7 +5034,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
@@ -5074,7 +5064,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>184</v>
       </c>
@@ -5103,19 +5093,19 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
     </row>
   </sheetData>
@@ -5127,7 +5117,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
@@ -5136,26 +5126,26 @@
       <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="F1" s="3" t="s">
         <v>267</v>
@@ -5186,7 +5176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -5263,7 +5253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -5341,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -5419,7 +5409,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>205</v>
       </c>
@@ -5497,7 +5487,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -5575,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -5653,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -5731,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -5809,7 +5799,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -5887,7 +5877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -5965,7 +5955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -6043,7 +6033,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -6121,7 +6111,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -6199,7 +6189,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -6277,7 +6267,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -6355,7 +6345,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -6433,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>266</v>
       </c>
@@ -6447,7 +6437,7 @@
       <c r="R19"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>193</v>
       </c>
@@ -6474,7 +6464,7 @@
       <c r="R20"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -6508,7 +6498,7 @@
       <c r="R21"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -6542,7 +6532,7 @@
       <c r="R22"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="s">
         <v>256</v>
       </c>
@@ -6557,14 +6547,14 @@
       <c r="P23" s="3"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F24" s="6"/>
       <c r="H24" s="3"/>
       <c r="O24"/>
       <c r="P24" s="3"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>254</v>
       </c>
@@ -6594,7 +6584,7 @@
       <c r="Q25" s="3"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -6634,7 +6624,7 @@
       <c r="Q26" s="3"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -6674,7 +6664,7 @@
       <c r="Q27" s="3"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6714,7 +6704,7 @@
       <c r="Q28" s="3"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -6754,7 +6744,7 @@
       <c r="Q29" s="3"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -6793,12 +6783,12 @@
       <c r="Q30" s="3"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B31" s="48" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>273</v>
       </c>
@@ -6806,7 +6796,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>250</v>
       </c>
@@ -6818,7 +6808,7 @@
         <v>90530.901722391092</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>251</v>
       </c>
@@ -6830,7 +6820,7 @@
         <v>135796.35258358665</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>98.7</v>
       </c>
@@ -6847,7 +6837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
@@ -6856,15 +6846,15 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="72"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="60"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>412</v>
       </c>
       <c r="B1" s="1"/>
@@ -6882,7 +6872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6914,8 +6904,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
         <v>200</v>
       </c>
       <c r="B3" t="s">
@@ -6924,7 +6914,7 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="61">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -6950,8 +6940,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
         <v>204</v>
       </c>
       <c r="B4" t="s">
@@ -6960,7 +6950,7 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="61">
         <v>35</v>
       </c>
       <c r="E4" t="s">
@@ -6986,8 +6976,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6996,7 +6986,7 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="71">
         <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -7022,8 +7012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
         <v>206</v>
       </c>
       <c r="B6" t="s">
@@ -7032,7 +7022,7 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="61">
         <v>4</v>
       </c>
       <c r="E6" t="s">
@@ -7058,8 +7048,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
         <v>207</v>
       </c>
       <c r="B7" t="s">
@@ -7068,7 +7058,7 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="61">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -7094,8 +7084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>208</v>
       </c>
       <c r="B8" t="s">
@@ -7104,7 +7094,7 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="61">
         <v>2</v>
       </c>
       <c r="E8" t="s">
@@ -7130,8 +7120,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
         <v>209</v>
       </c>
       <c r="B9" t="s">
@@ -7140,7 +7130,7 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="61">
         <v>1001</v>
       </c>
       <c r="E9" t="s">
@@ -7166,8 +7156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
         <v>211</v>
       </c>
       <c r="B10" t="s">
@@ -7176,7 +7166,7 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="61">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -7202,8 +7192,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
         <v>212</v>
       </c>
       <c r="B11" t="s">
@@ -7212,7 +7202,7 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="61">
         <v>1339</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -7238,8 +7228,8 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
         <v>213</v>
       </c>
       <c r="B12" t="s">
@@ -7248,7 +7238,7 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="61">
         <v>788</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -7274,8 +7264,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
         <v>214</v>
       </c>
       <c r="B13" t="s">
@@ -7284,7 +7274,7 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="61">
         <v>1337</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -7310,8 +7300,8 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
         <v>216</v>
       </c>
       <c r="B14" t="s">
@@ -7320,7 +7310,7 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="61">
         <v>1336</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -7346,210 +7336,210 @@
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="C15" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="61" t="s">
         <v>403</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="60">
         <v>740</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="62">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="61" t="s">
         <v>404</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="60">
         <v>741</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="62">
         <f t="shared" si="0"/>
         <v>926.25</v>
       </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="61" t="s">
         <v>401</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="60">
         <v>694</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="62">
         <f t="shared" si="0"/>
         <v>867.5</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="C18" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="73">
+      <c r="C18" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="61">
         <v>1312</v>
       </c>
       <c r="E18" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="60">
         <v>250</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="62">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="61">
         <v>3</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="60">
         <v>800</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="62">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="61">
         <v>5</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="60">
         <v>200</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="62">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="61">
         <v>6</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="60">
         <v>200</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="62">
         <f>F21*1.25</f>
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="72" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="60" t="s">
         <v>429</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G27" s="6"/>
     </row>
   </sheetData>
@@ -7561,7 +7551,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:Q24"/>
@@ -7570,17 +7560,17 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>298</v>
@@ -7600,7 +7590,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7653,7 +7643,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -7711,7 +7701,7 @@
         <v>0.57729468599033817</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -7769,7 +7759,7 @@
         <v>0.57045454545454544</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -7827,7 +7817,7 @@
         <v>0.59642857142857142</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -7885,7 +7875,7 @@
         <v>0.20084033613445379</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -7943,7 +7933,7 @@
         <v>0.27380952380952384</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -8001,7 +7991,7 @@
         <v>0.27380952380952384</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -8059,7 +8049,7 @@
         <v>0.19834307992202729</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -8117,7 +8107,7 @@
         <v>9.9723145071982267E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -8175,7 +8165,7 @@
         <v>0.30333333333333334</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8233,7 +8223,7 @@
         <v>0.19375000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -8291,7 +8281,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -8349,11 +8339,11 @@
         <v>0.13095238095238093</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="53" t="s">
@@ -8368,50 +8358,50 @@
       <c r="F15" s="53">
         <v>1</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="60">
         <v>5500</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="60">
         <v>8</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="60">
         <f>1/H15</f>
         <v>0.125</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="60">
         <v>600</v>
       </c>
-      <c r="L15" s="72">
+      <c r="L15" s="60">
         <v>7</v>
       </c>
       <c r="M15" s="53">
         <f>1/L15</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="N15" s="72">
+      <c r="N15" s="60">
         <v>3</v>
       </c>
       <c r="O15" s="53">
         <f>1/N15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P15" s="72">
+      <c r="P15" s="60">
         <f>O15/2+M15/2</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="Q15" s="72">
+      <c r="Q15" s="60">
         <f>I15/2+M15/2+O15/2</f>
         <v>0.30059523809523808</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -8426,50 +8416,50 @@
       <c r="F16" s="53">
         <v>1</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="60">
         <v>4300</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="60">
         <v>7</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="60">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="60">
         <v>400</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="60">
         <v>5</v>
       </c>
       <c r="M16" s="53">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="60">
         <v>2</v>
       </c>
       <c r="O16" s="53">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="P16" s="72">
+      <c r="P16" s="60">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="Q16" s="72">
+      <c r="Q16" s="60">
         <f t="shared" si="4"/>
         <v>0.42142857142857143</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+    <row r="17" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="53" t="s">
@@ -8484,50 +8474,50 @@
       <c r="F17" s="53">
         <v>1</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="60">
         <v>6000</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="60">
         <v>9</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="60">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="60">
         <v>900</v>
       </c>
-      <c r="L17" s="72">
+      <c r="L17" s="60">
         <v>7</v>
       </c>
       <c r="M17" s="53">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="60">
         <v>4</v>
       </c>
       <c r="O17" s="53">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="P17" s="72">
+      <c r="P17" s="60">
         <f t="shared" si="3"/>
         <v>0.19642857142857142</v>
       </c>
-      <c r="Q17" s="72">
+      <c r="Q17" s="60">
         <f t="shared" si="4"/>
         <v>0.25198412698412698</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="53" t="s">
@@ -8542,222 +8532,222 @@
       <c r="F18" s="53">
         <v>1</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="60">
         <v>5200</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="60">
         <v>8</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="60">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="60">
         <v>850</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="60">
         <v>11</v>
       </c>
       <c r="M18" s="53">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="60">
         <v>4</v>
       </c>
       <c r="O18" s="53">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="P18" s="72">
+      <c r="P18" s="60">
         <f t="shared" si="3"/>
         <v>0.17045454545454547</v>
       </c>
-      <c r="Q18" s="72">
+      <c r="Q18" s="60">
         <f t="shared" si="4"/>
         <v>0.23295454545454547</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+    <row r="19" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="72">
-        <v>1</v>
-      </c>
-      <c r="E19" s="72" t="s">
+      <c r="D19" s="60">
+        <v>1</v>
+      </c>
+      <c r="E19" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="F19" s="72">
-        <v>1</v>
-      </c>
-      <c r="G19" s="72">
+      <c r="F19" s="60">
+        <v>1</v>
+      </c>
+      <c r="G19" s="60">
         <v>1700</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="60">
         <v>6</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="60">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="60">
         <v>450</v>
       </c>
-      <c r="L19" s="72">
+      <c r="L19" s="60">
         <v>6</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="60">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="60">
         <v>6</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="60">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P19" s="72">
+      <c r="P19" s="60">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="60">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="72">
-        <v>1</v>
-      </c>
-      <c r="E20" s="72" t="s">
+      <c r="D20" s="60">
+        <v>1</v>
+      </c>
+      <c r="E20" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="F20" s="74">
-        <v>1</v>
-      </c>
-      <c r="G20" s="72">
+      <c r="F20" s="62">
+        <v>1</v>
+      </c>
+      <c r="G20" s="60">
         <v>1600</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="60">
         <v>4</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="60">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="60">
         <v>50</v>
       </c>
-      <c r="L20" s="72">
-        <v>1</v>
-      </c>
-      <c r="M20" s="72">
+      <c r="L20" s="60">
+        <v>1</v>
+      </c>
+      <c r="M20" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N20" s="72">
-        <v>1</v>
-      </c>
-      <c r="O20" s="72">
+      <c r="N20" s="60">
+        <v>1</v>
+      </c>
+      <c r="O20" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P20" s="72">
+      <c r="P20" s="60">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="60">
         <f t="shared" si="4"/>
         <v>1.125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+    <row r="21" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="72">
-        <v>1</v>
-      </c>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="60">
+        <v>1</v>
+      </c>
+      <c r="E21" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="F21" s="74">
-        <v>1</v>
-      </c>
-      <c r="G21" s="72">
+      <c r="F21" s="62">
+        <v>1</v>
+      </c>
+      <c r="G21" s="60">
         <v>1600</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="60">
         <v>3</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="60">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="72">
+      <c r="K21" s="60">
         <v>100</v>
       </c>
-      <c r="L21" s="72">
-        <v>1</v>
-      </c>
-      <c r="M21" s="72">
+      <c r="L21" s="60">
+        <v>1</v>
+      </c>
+      <c r="M21" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N21" s="72">
-        <v>1</v>
-      </c>
-      <c r="O21" s="72">
+      <c r="N21" s="60">
+        <v>1</v>
+      </c>
+      <c r="O21" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P21" s="72">
+      <c r="P21" s="60">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="60">
         <f t="shared" si="4"/>
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8767,7 +8757,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:R26"/>
@@ -8776,15 +8766,15 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="3" max="9" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
@@ -8809,14 +8799,14 @@
       <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="75" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
         <v>7</v>
@@ -8851,14 +8841,14 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="3">
         <v>272107</v>
       </c>
@@ -8902,11 +8892,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="73"/>
       <c r="C4">
         <v>4165</v>
       </c>
@@ -8943,24 +8933,24 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="P4" s="72">
+      <c r="P4" s="60">
         <f>'INPUT - Housing per plan '!I3+SUM('INPUT - Housing per plan '!I19:I21)</f>
         <v>2600</v>
       </c>
-      <c r="Q4" s="72">
+      <c r="Q4" s="60">
         <f>C4-P4</f>
         <v>1565</v>
       </c>
-      <c r="R4" s="82">
+      <c r="R4" s="70">
         <f t="shared" ref="R4:R7" si="0">P4/(P4+Q4)</f>
         <v>0.62424969987995194</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="73"/>
       <c r="C5">
         <v>10014</v>
       </c>
@@ -9010,11 +9000,11 @@
         <v>0.36848412222887955</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="73"/>
       <c r="C6">
         <v>1982</v>
       </c>
@@ -9064,11 +9054,11 @@
         <v>0.6170534813319879</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="60"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="73"/>
       <c r="C7">
         <v>23728</v>
       </c>
@@ -9105,75 +9095,75 @@
       <c r="N7">
         <v>10</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="60">
         <f>SUM('INPUT - Housing per plan '!I11:I18)</f>
         <v>15925</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="60">
         <f>C7-P7</f>
         <v>7803</v>
       </c>
-      <c r="R7" s="82">
+      <c r="R7" s="70">
         <f t="shared" si="0"/>
         <v>0.67114801078894137</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O8" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="72">
+      <c r="P8" s="60">
         <f>SUM(P3:P7)</f>
         <v>23438</v>
       </c>
-      <c r="Q8" s="72">
+      <c r="Q8" s="60">
         <f>SUM(Q3:Q7)</f>
         <v>16451</v>
       </c>
-      <c r="R8" s="82">
+      <c r="R8" s="70">
         <f>P8/(P8+Q8)</f>
         <v>0.58758053598736493</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="6:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -9195,7 +9185,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
@@ -9204,13 +9194,13 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -9239,7 +9229,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -9270,7 +9260,7 @@
         <v>55173.812329213564</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9301,7 +9291,7 @@
         <v>2056.5318759557772</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -9332,7 +9322,7 @@
         <v>1116.4030183759933</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -9363,7 +9353,7 @@
         <v>3349.2090551279803</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -9394,7 +9384,7 @@
         <v>8519.9177718167921</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -9403,7 +9393,7 @@
         <v>70215.874050490107</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>285</v>
       </c>
@@ -9419,39 +9409,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="39.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="14" width="16.28515625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="14" width="16.33203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="53" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="53" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="G1" s="54" t="s">
@@ -9479,7 +9469,7 @@
       <c r="Y1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -9543,7 +9533,7 @@
       <c r="Y2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -9616,7 +9606,7 @@
       <c r="Y3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -9656,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N21" si="3">L4*(100-M4)/100</f>
@@ -9689,7 +9679,7 @@
       <c r="Y4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>205</v>
       </c>
@@ -9729,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -9760,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -9800,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="52">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
@@ -9833,7 +9823,7 @@
       <c r="Y6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -9906,7 +9896,7 @@
       <c r="Y7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -9946,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
@@ -9979,7 +9969,7 @@
       <c r="Y8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -10052,7 +10042,7 @@
       <c r="Y9"/>
       <c r="AB9"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -10092,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
@@ -10127,7 +10117,7 @@
       <c r="Z10" s="3"/>
       <c r="AB10"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -10203,7 +10193,7 @@
       <c r="Z11" s="3"/>
       <c r="AB11"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -10243,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
@@ -10278,7 +10268,7 @@
       <c r="Z12" s="3"/>
       <c r="AB12"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -10318,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
@@ -10353,7 +10343,7 @@
       <c r="Z13" s="3"/>
       <c r="AB13"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -10428,17 +10418,17 @@
       <c r="Z14" s="3"/>
       <c r="AB14"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="60" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="53" t="s">
@@ -10447,38 +10437,38 @@
       <c r="F15" s="53">
         <v>1</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="67">
         <f>'BASIS - Accessiblity of plans'!P15</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="H15" s="79">
+      <c r="H15" s="67">
         <f>'BASIS - Accessiblity of plans'!I15</f>
         <v>0.125</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="60">
         <v>740</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="62">
         <f>I15*1.25</f>
         <v>925</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81">
+      <c r="K15" s="69"/>
+      <c r="L15" s="69">
         <f>K15/100*J15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="81">
-        <v>0</v>
-      </c>
-      <c r="N15" s="72">
+      <c r="M15" s="69">
+        <v>0</v>
+      </c>
+      <c r="N15" s="60">
         <f>L15*(100-M15)/100</f>
         <v>0</v>
       </c>
-      <c r="O15" s="72">
+      <c r="O15" s="60">
         <f>L15*M15/100</f>
         <v>0</v>
       </c>
-      <c r="P15" s="72" t="str">
+      <c r="P15" s="60" t="str">
         <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
@@ -10494,7 +10484,7 @@
         <f>IF($F15=1,$O15*('BASIS - Financial data'!$H11-'BASIS - Financial data'!$D11)*(1+Q15),$O15*('BASIS - Financial data'!$I11-'BASIS - Financial data'!$F11))*(1+Q15)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="72">
+      <c r="T15" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10503,17 +10493,17 @@
       <c r="AA15" s="3"/>
       <c r="AB15"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="60" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="53" t="s">
@@ -10522,38 +10512,38 @@
       <c r="F16" s="53">
         <v>1</v>
       </c>
-      <c r="G16" s="79">
+      <c r="G16" s="67">
         <f>'BASIS - Accessiblity of plans'!P16</f>
         <v>0.35</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="67">
         <f>'BASIS - Accessiblity of plans'!I16</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="60">
         <v>741</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="62">
         <f t="shared" si="1"/>
         <v>926.25</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81">
+      <c r="K16" s="69"/>
+      <c r="L16" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="81">
-        <v>0</v>
-      </c>
-      <c r="N16" s="72">
+      <c r="M16" s="69">
+        <v>0</v>
+      </c>
+      <c r="N16" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="72">
+      <c r="O16" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P16" s="72" t="str">
+      <c r="P16" s="60" t="str">
         <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
@@ -10569,22 +10559,22 @@
         <f>IF($F16=1,$O16*('BASIS - Financial data'!$H11-'BASIS - Financial data'!$D11)*(1+Q16),$O16*('BASIS - Financial data'!$I11-'BASIS - Financial data'!$F11))*(1+Q16)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="72">
+      <c r="T16" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="60" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="53" t="s">
@@ -10593,38 +10583,38 @@
       <c r="F17" s="53">
         <v>1</v>
       </c>
-      <c r="G17" s="79">
+      <c r="G17" s="67">
         <f>'BASIS - Accessiblity of plans'!P17</f>
         <v>0.19642857142857142</v>
       </c>
-      <c r="H17" s="79">
+      <c r="H17" s="67">
         <f>'BASIS - Accessiblity of plans'!I17</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="60">
         <v>694</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="68">
         <f>I17*1.25</f>
         <v>867.5</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81">
+      <c r="K17" s="69"/>
+      <c r="L17" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17" s="81">
-        <v>0</v>
-      </c>
-      <c r="N17" s="72">
+      <c r="M17" s="69">
+        <v>0</v>
+      </c>
+      <c r="N17" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="72">
+      <c r="O17" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P17" s="72" t="str">
+      <c r="P17" s="60" t="str">
         <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
@@ -10632,7 +10622,7 @@
         <f>SUM('INPUT - Infra Projects'!AR3:AR40)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="72">
+      <c r="R17" s="60">
         <f>IF(F17=1,N17*('BASIS - Financial data'!E11-'BASIS - Financial data'!D11)*(1+Q17),N17*('BASIS - Financial data'!G11-'BASIS - Financial data'!F11))*(1+Q17)</f>
         <v>0</v>
       </c>
@@ -10640,7 +10630,7 @@
         <f>IF($F17=1,$O17*('BASIS - Financial data'!$H11-'BASIS - Financial data'!$D11)*(1+Q17),$O17*('BASIS - Financial data'!$I11-'BASIS - Financial data'!$F11))*(1+Q17)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="72">
+      <c r="T17" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10649,17 +10639,17 @@
       <c r="AA17" s="3"/>
       <c r="AB17"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="60" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="53" t="s">
@@ -10668,38 +10658,38 @@
       <c r="F18" s="53">
         <v>1</v>
       </c>
-      <c r="G18" s="79">
+      <c r="G18" s="67">
         <f>'BASIS - Accessiblity of plans'!P18</f>
         <v>0.17045454545454547</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="67">
         <f>'BASIS - Accessiblity of plans'!I18</f>
         <v>0.125</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="60">
         <v>250</v>
       </c>
-      <c r="J18" s="74">
+      <c r="J18" s="62">
         <f t="shared" si="1"/>
         <v>312.5</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81">
+      <c r="K18" s="69"/>
+      <c r="L18" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="81">
-        <v>0</v>
-      </c>
-      <c r="N18" s="72">
+      <c r="M18" s="69">
+        <v>50</v>
+      </c>
+      <c r="N18" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" s="72">
+      <c r="O18" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P18" s="72" t="str">
+      <c r="P18" s="60" t="str">
         <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
@@ -10715,7 +10705,7 @@
         <f>IF($F18=1,$O18*('BASIS - Financial data'!$H11-'BASIS - Financial data'!$D11)*(1+Q18),$O18*('BASIS - Financial data'!$I11-'BASIS - Financial data'!$F11))*(1+Q18)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="72">
+      <c r="T18" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10724,57 +10714,57 @@
       <c r="AA18" s="3"/>
       <c r="AB18"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="60" t="s">
         <v>230</v>
       </c>
       <c r="F19" s="53">
         <v>1</v>
       </c>
-      <c r="G19" s="79">
+      <c r="G19" s="67">
         <f>'BASIS - Accessiblity of plans'!P19</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="67">
         <f>'BASIS - Accessiblity of plans'!I19</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="60">
         <v>800</v>
       </c>
-      <c r="J19" s="74">
+      <c r="J19" s="62">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81">
+      <c r="K19" s="69"/>
+      <c r="L19" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="81">
-        <v>0</v>
-      </c>
-      <c r="N19" s="72">
+      <c r="M19" s="69">
+        <v>20</v>
+      </c>
+      <c r="N19" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="72" t="str">
+      <c r="P19" s="60" t="str">
         <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
@@ -10799,57 +10789,57 @@
       <c r="AA19" s="3"/>
       <c r="AB19"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="60" t="s">
         <v>230</v>
       </c>
       <c r="F20" s="53">
         <v>1</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="67">
         <f>'BASIS - Accessiblity of plans'!P20</f>
         <v>1</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="67">
         <f>'BASIS - Accessiblity of plans'!I20</f>
         <v>0.25</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="60">
         <v>200</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="62">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81">
+      <c r="K20" s="69"/>
+      <c r="L20" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="81">
-        <v>0</v>
-      </c>
-      <c r="N20" s="72">
+      <c r="M20" s="69">
+        <v>10</v>
+      </c>
+      <c r="N20" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="72">
+      <c r="O20" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P20" s="72" t="str">
+      <c r="P20" s="60" t="str">
         <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
@@ -10871,57 +10861,57 @@
       </c>
       <c r="AB20"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="60" t="s">
         <v>230</v>
       </c>
       <c r="F21" s="53">
         <v>1</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="67">
         <f>'BASIS - Accessiblity of plans'!P21</f>
         <v>1</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="67">
         <f>'BASIS - Accessiblity of plans'!I21</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="60">
         <v>200</v>
       </c>
-      <c r="J21" s="74">
+      <c r="J21" s="62">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81">
+      <c r="K21" s="69"/>
+      <c r="L21" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="81">
-        <v>0</v>
-      </c>
-      <c r="N21" s="72">
+      <c r="M21" s="69">
+        <v>40</v>
+      </c>
+      <c r="N21" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O21" s="72">
+      <c r="O21" s="60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="72" t="str">
+      <c r="P21" s="60" t="str">
         <f t="shared" si="0"/>
         <v>TRUE</v>
       </c>
@@ -10943,28 +10933,28 @@
       </c>
       <c r="AB21"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O22"/>
       <c r="W22" s="3"/>
       <c r="Y22"/>
       <c r="Z22" s="3"/>
       <c r="AB22"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O23"/>
       <c r="W23" s="3"/>
       <c r="Y23"/>
       <c r="Z23" s="3"/>
       <c r="AB23"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O24"/>
       <c r="W24" s="3"/>
       <c r="Y24"/>
       <c r="Z24" s="3"/>
       <c r="AB24"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>459</v>
       </c>
@@ -10974,7 +10964,7 @@
       <c r="Z25" s="3"/>
       <c r="AB25"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>422</v>
       </c>
@@ -10984,64 +10974,64 @@
       <c r="Z26" s="3"/>
       <c r="AB26"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O27"/>
       <c r="W27" s="3"/>
       <c r="Y27"/>
       <c r="Z27" s="3"/>
       <c r="AB27"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
@@ -11063,60 +11053,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="K8" sqref="K8"/>
       <selection pane="topRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="10.28515625" style="46" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" customWidth="1"/>
-    <col min="29" max="32" width="16.42578125" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" customWidth="1"/>
-    <col min="34" max="37" width="16.42578125" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="10.33203125" style="46" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="29" max="32" width="16.5" customWidth="1"/>
+    <col min="33" max="33" width="13.5" customWidth="1"/>
+    <col min="34" max="37" width="16.5" customWidth="1"/>
+    <col min="41" max="41" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="65" t="s">
         <v>407</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="27" t="s">
         <v>181</v>
       </c>
@@ -11142,20 +11132,20 @@
       <c r="W1" s="40"/>
       <c r="X1" s="40"/>
       <c r="Y1" s="40"/>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
       <c r="AL1" s="1" t="s">
         <v>312</v>
       </c>
@@ -11169,10 +11159,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="77"/>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="30"/>
       <c r="F2" s="26" t="s">
         <v>177</v>
@@ -11195,12 +11185,12 @@
       <c r="L2" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
       <c r="Q2" s="26" t="s">
         <v>234</v>
       </c>
@@ -11313,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11484,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11656,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11681,7 +11671,7 @@
       <c r="H5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="72">
         <v>20</v>
       </c>
       <c r="J5" s="24" t="s">
@@ -11831,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12004,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12177,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12352,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12527,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -12702,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -12877,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13050,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -13223,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -13398,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -13571,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -13744,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -13917,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -14092,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -14265,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -14440,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -14615,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -14790,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -14963,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -15136,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -15311,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -15486,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -15661,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -15834,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -16009,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -16184,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -16359,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -16534,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -16544,7 +16534,7 @@
       <c r="C33" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="2" t="s">
         <v>84</v>
       </c>
@@ -16699,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -16874,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -16884,7 +16874,7 @@
       <c r="C35" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
@@ -17039,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -17049,7 +17039,7 @@
       <c r="C36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
@@ -17207,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -17217,7 +17207,7 @@
       <c r="C37" t="s">
         <v>382</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="60" t="s">
         <v>455</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -17382,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -17392,7 +17382,7 @@
       <c r="C38" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="66" t="s">
         <v>456</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -17557,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -17567,7 +17557,7 @@
       <c r="C39" t="s">
         <v>384</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="60" t="s">
         <v>457</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -17732,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -17907,13 +17897,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="I41" s="7">
         <f>SUM(I3:I40)</f>
         <v>2268.5</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="53"/>
@@ -17942,7 +17932,7 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="53"/>
@@ -17971,7 +17961,7 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="53"/>
@@ -18017,7 +18007,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AA43"/>
@@ -18027,47 +18017,47 @@
       <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13.5" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="22.83203125" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
@@ -18082,7 +18072,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>223</v>
       </c>
@@ -18102,7 +18092,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -18160,7 +18150,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>229</v>
       </c>
@@ -18218,7 +18208,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -18285,7 +18275,7 @@
         <v>-393</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -18346,7 +18336,7 @@
         <v>-284.89999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -18407,12 +18397,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>224</v>
       </c>
@@ -18420,38 +18410,38 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -18474,25 +18464,25 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="84" t="s">
         <v>390</v>
       </c>
       <c r="B14" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="C15" s="69"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="84"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="1" t="s">
         <v>393</v>
       </c>
@@ -18503,11 +18493,11 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="80" t="s">
         <v>220</v>
       </c>
       <c r="C16" t="s">
@@ -18520,9 +18510,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -18533,25 +18523,25 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="D18" s="72" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="D18" s="60" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
       <c r="D19" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="80" t="s">
         <v>225</v>
       </c>
       <c r="C20" t="s">
@@ -18564,9 +18554,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -18577,46 +18567,46 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
       <c r="D22" s="19" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
       <c r="D23" s="19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
       <c r="D24" s="19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
       <c r="D25" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
       <c r="D26" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="80" t="s">
         <v>221</v>
       </c>
       <c r="C27" t="s">
@@ -18632,9 +18622,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="81"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
@@ -18642,9 +18632,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="81"/>
+      <c r="B29" s="80"/>
       <c r="C29" t="s">
         <v>23</v>
       </c>
@@ -18652,9 +18642,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="81"/>
+      <c r="B30" s="80"/>
       <c r="C30" t="s">
         <v>24</v>
       </c>
@@ -18662,9 +18652,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="81"/>
+      <c r="B31" s="80"/>
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -18672,11 +18662,11 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="80" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
@@ -18692,9 +18682,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
       <c r="D33" s="3" t="s">
         <v>357</v>
       </c>
@@ -18702,9 +18692,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
       <c r="D34" s="3" t="s">
         <v>360</v>
       </c>
@@ -18712,9 +18702,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
       <c r="D35" s="3" t="s">
         <v>361</v>
       </c>
@@ -18722,18 +18712,18 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
       <c r="D36" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="80" t="s">
         <v>218</v>
       </c>
       <c r="C37" t="s">
@@ -18743,9 +18733,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
@@ -18753,9 +18743,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
       <c r="C39" t="s">
         <v>17</v>
       </c>
@@ -18763,40 +18753,55 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
       <c r="D40" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
       <c r="D41" s="53" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="80" t="s">
         <v>226</v>
       </c>
       <c r="E42" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
       <c r="E43" t="s">
         <v>380</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
@@ -18805,21 +18810,6 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -18828,7 +18818,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
@@ -18837,15 +18827,15 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -18862,7 +18852,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -18879,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -18897,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -18915,7 +18905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -18933,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -18951,7 +18941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -18969,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>347</v>
       </c>
@@ -18983,7 +18973,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>326</v>
       </c>
@@ -19003,7 +18993,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>327</v>
       </c>
@@ -19023,7 +19013,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -19043,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -19063,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>330</v>
       </c>
@@ -19083,7 +19073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -19103,7 +19093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>332</v>
       </c>
@@ -19123,7 +19113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>

--- a/data/excel/20180926 Regional game IMS 2.3.xlsx
+++ b/data/excel/20180926 Regional game IMS 2.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raphael/Library/Mobile Documents/com~apple~CloudDocs/Studium/GustavoQGIS/PlanningTool/data/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raphael/.qgis2/python/plugins/PlanningTool/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31320" windowHeight="15160" tabRatio="762" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31320" windowHeight="15160" tabRatio="762" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BASIS - Financial data" sheetId="21" r:id="rId1"/>
@@ -3212,10 +3212,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9414,8 +9414,8 @@
   </sheetPr>
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -11058,10 +11058,10 @@
   </sheetPr>
   <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="K8" sqref="K8"/>
-      <selection pane="topRight" activeCell="M32" sqref="M32"/>
+      <selection pane="topRight" activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11346,7 +11346,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="R3" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="45">
         <v>0</v>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="AN3">
         <f>R3*AM3*(AB3+AG3)</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="AO3">
         <f>S3*$AM3*(AC3+AH3)</f>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="AS3">
         <f>$R3*AG3*$AM3</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="AT3">
         <f>$R3*AH3*$AM3</f>
@@ -11443,11 +11443,11 @@
       </c>
       <c r="AU3">
         <f>$R3*AI3*$AM3</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="AV3">
         <f>$R3*AJ3*$AM3</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="AW3">
         <f>$R3*AK3*$AM3</f>
@@ -12912,7 +12912,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="45">
         <v>0</v>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="AY12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AZ12">
         <f t="shared" si="14"/>
@@ -14825,7 +14825,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="45">
         <v>0</v>
@@ -14950,7 +14950,7 @@
       </c>
       <c r="BB23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
@@ -17594,7 +17594,7 @@
         <v>232</v>
       </c>
       <c r="R39" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="45">
         <v>0</v>
@@ -17691,7 +17691,7 @@
       </c>
       <c r="AU39">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AV39">
         <f t="shared" si="10"/>
@@ -18414,29 +18414,29 @@
       <c r="A10" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -18494,10 +18494,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="81" t="s">
         <v>220</v>
       </c>
       <c r="C16" t="s">
@@ -18511,8 +18511,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -18524,24 +18524,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
       <c r="D18" s="60" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
       <c r="D19" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="81" t="s">
         <v>225</v>
       </c>
       <c r="C20" t="s">
@@ -18555,8 +18555,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -18568,45 +18568,45 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
       <c r="D22" s="19" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
       <c r="D23" s="19" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="D24" s="19" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
       <c r="D25" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
       <c r="D26" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="81" t="s">
         <v>221</v>
       </c>
       <c r="C27" t="s">
@@ -18623,8 +18623,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
@@ -18633,8 +18633,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
       <c r="C29" t="s">
         <v>23</v>
       </c>
@@ -18643,8 +18643,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
       <c r="C30" t="s">
         <v>24</v>
       </c>
@@ -18653,8 +18653,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="81"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -18663,10 +18663,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
@@ -18683,8 +18683,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
       <c r="D33" s="3" t="s">
         <v>357</v>
       </c>
@@ -18693,8 +18693,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
       <c r="D34" s="3" t="s">
         <v>360</v>
       </c>
@@ -18703,8 +18703,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
       <c r="D35" s="3" t="s">
         <v>361</v>
       </c>
@@ -18713,17 +18713,17 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
       <c r="D36" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="81" t="s">
         <v>218</v>
       </c>
       <c r="C37" t="s">
@@ -18734,8 +18734,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="3" t="s">
         <v>14</v>
       </c>
@@ -18744,8 +18744,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
       <c r="C39" t="s">
         <v>17</v>
       </c>
@@ -18754,24 +18754,24 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
       <c r="D40" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
       <c r="D41" s="53" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="81" t="s">
         <v>226</v>
       </c>
       <c r="E42" t="s">
@@ -18779,14 +18779,29 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
       <c r="E43" t="s">
         <v>380</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B26"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="C1:G1"/>
@@ -18795,21 +18810,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="C2" s="2">
         <f>SUM('INPUT - Infra Projects'!AS3:AS40)</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D2" s="2">
         <f>SUM('INPUT - Infra Projects'!AX3:AX40)</f>
@@ -18866,7 +18866,7 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(C2:D2)</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -18880,11 +18880,11 @@
       </c>
       <c r="D3">
         <f>SUM('INPUT - Infra Projects'!AY3:AY40)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="0">SUM(C3:D3)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -18894,7 +18894,7 @@
       <c r="B4" s="2"/>
       <c r="C4">
         <f>SUM('INPUT - Infra Projects'!AU3:AU40)</f>
-        <v>0</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="D4">
         <f>SUM('INPUT - Infra Projects'!AZ3:AZ40)</f>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.0000000000000006E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -18912,7 +18912,7 @@
       <c r="B5" s="2"/>
       <c r="C5">
         <f>SUM('INPUT - Infra Projects'!AV3:AV40)</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D5">
         <f>SUM('INPUT - Infra Projects'!BA3:BA40)</f>
@@ -18920,7 +18920,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -18934,11 +18934,11 @@
       </c>
       <c r="D6">
         <f>SUM('INPUT - Infra Projects'!BB3:BB40)</f>
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -18948,7 +18948,7 @@
       <c r="B7" s="2"/>
       <c r="C7">
         <f>SUM(C2:C6)/5</f>
-        <v>0</v>
+        <v>1.6000000000000004E-4</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:E7" si="1">SUM(D2:D6)/5</f>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6000000000000004E-4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
